--- a/20180126_SmartCut/Meeting/20190111 Meeting/time history/time history.xlsx
+++ b/20180126_SmartCut/Meeting/20190111 Meeting/time history/time history.xlsx
@@ -365,7 +365,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,7 +419,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.31900000000000001</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="C5">
         <v>0.69499999999999995</v>

--- a/20180126_SmartCut/Meeting/20190111 Meeting/time history/time history.xlsx
+++ b/20180126_SmartCut/Meeting/20190111 Meeting/time history/time history.xlsx
@@ -26,37 +26,45 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
+    <t>chichi_TCU052 max ag</t>
+  </si>
+  <si>
+    <t>chichi_TCU067 max ag</t>
+  </si>
+  <si>
+    <t>chichi_TCU068 max ag</t>
+  </si>
+  <si>
+    <t>elcentro_EW</t>
+  </si>
+  <si>
+    <t>PGA</t>
+  </si>
+  <si>
+    <t>Sa(0.345, 5%)</t>
+  </si>
+  <si>
     <t>chichi_TAP010 max ag</t>
-  </si>
-  <si>
-    <t>chichi_TCU052 max ag</t>
-  </si>
-  <si>
-    <t>chichi_TCU067 max ag</t>
-  </si>
-  <si>
-    <t>chichi_TCU068 max ag</t>
-  </si>
-  <si>
-    <t>elcentro_EW</t>
-  </si>
-  <si>
-    <t>PGA</t>
-  </si>
-  <si>
-    <t>Sa(0.345, 5%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -84,7 +92,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -100,7 +108,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -365,25 +373,25 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>0.11700000000000001</v>
@@ -394,7 +402,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0.19800000000000001</v>
@@ -405,7 +413,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>0.31900000000000001</v>
@@ -416,7 +424,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>0.36899999999999999</v>
@@ -427,7 +435,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>0.214</v>
@@ -437,6 +445,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/20180126_SmartCut/Meeting/20190111 Meeting/time history/time history.xlsx
+++ b/20180126_SmartCut/Meeting/20190111 Meeting/time history/time history.xlsx
@@ -45,24 +45,23 @@
   </si>
   <si>
     <t>chichi_TAP010 max ag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -92,7 +91,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -108,7 +107,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -373,15 +372,15 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -389,7 +388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -400,40 +399,40 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0.19800000000000001</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="C3">
-        <v>0.254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.31900000000000001</v>
+        <v>0.498</v>
       </c>
       <c r="C4">
-        <v>1.026</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.14099999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0.36899999999999999</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="C5">
-        <v>0.69499999999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>3</v>
       </c>

--- a/20180126_SmartCut/Meeting/20190111 Meeting/time history/time history.xlsx
+++ b/20180126_SmartCut/Meeting/20190111 Meeting/time history/time history.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>chichi_TCU052 max ag</t>
   </si>
@@ -41,30 +41,49 @@
     <t>PGA</t>
   </si>
   <si>
-    <t>Sa(0.345, 5%)</t>
-  </si>
-  <si>
     <t>chichi_TAP010 max ag</t>
+  </si>
+  <si>
+    <t>Sa(0.344, 5%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2nd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,11 +106,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -107,7 +127,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -369,78 +389,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0.11700000000000001</v>
       </c>
-      <c r="C2">
-        <v>0.17199999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C2" s="1">
+        <v>0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0.44700000000000001</v>
       </c>
-      <c r="C3">
-        <v>0.23799999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="C3" s="1">
+        <v>0.68300000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0.498</v>
       </c>
-      <c r="C4">
-        <v>0.14099999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="C4" s="1">
+        <v>1.234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>0.51100000000000001</v>
       </c>
-      <c r="C5">
-        <v>0.442</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C5" s="1">
+        <v>1.383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>0.214</v>
       </c>
-      <c r="C6">
-        <v>0.41499999999999998</v>
+      <c r="C6" s="1">
+        <v>0.41399999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="F10" s="1">
+        <v>8.7999999999999995E-2</v>
       </c>
     </row>
   </sheetData>
